--- a/xlsx/电子艺术大奖_intext.xlsx
+++ b/xlsx/电子艺术大奖_intext.xlsx
@@ -29,7 +29,7 @@
     <t>计算机动画</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_电子艺术大奖</t>
+    <t>政策_政策_维基百科_电子艺术大奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%8E%E9%A0%85</t>
   </si>
   <si>
-    <t>獎項</t>
+    <t>奖项</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%8E%E5%8B%B5</t>
   </si>
   <si>
-    <t>獎勵</t>
+    <t>奖励</t>
   </si>
 </sst>
 </file>
